--- a/Bots/MoneyFarmer/Meta/Requirements_Engineering/Backlog.xlsx
+++ b/Bots/MoneyFarmer/Meta/Requirements_Engineering/Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Github\Wizard101_bots\Bots\MoneyFarmer\Meta\Requirements_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2DE45A-6097-4B20-A35C-02BB1A35DDF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0187B49A-940C-4503-8EBF-B026D0A73BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product_backlog" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>Must have:</t>
   </si>
@@ -193,6 +193,30 @@
   </si>
   <si>
     <t>No inputs are hard coded, so the system knows where to click on all settings</t>
+  </si>
+  <si>
+    <t>FM-6</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>The bot shall implemented using a finite state machine</t>
+  </si>
+  <si>
+    <t>FM-7</t>
+  </si>
+  <si>
+    <t>The bot shall use screenshots of the window to make decisions</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>The system takes a screenshot of the window to then be processed by the bot, this happens continously and as fast as the hardware allows</t>
   </si>
 </sst>
 </file>
@@ -526,19 +550,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="3" width="65.6328125" style="3" customWidth="1"/>
     <col min="4" max="5" width="12.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -554,19 +579,22 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -583,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -600,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -617,7 +645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -634,7 +662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -648,60 +676,80 @@
         <v>2</v>
       </c>
       <c r="E10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -712,50 +760,50 @@
     </row>
     <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>5</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -763,98 +811,115 @@
     </row>
     <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>9</v>
       </c>
     </row>
